--- a/sesiones/TT03/Asistencia.xlsx
+++ b/sesiones/TT03/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smonsalve\Dropbox\5.LEONISA\TableauThursdays\TT03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smonsalve\Dropbox\5.LEONISA\DataThursdays.github.io\sesiones\TT03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>Ana Cristina Jaramillo M</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>ASISTENCIAS</t>
+  </si>
+  <si>
+    <t>Sebastian Rivera</t>
+  </si>
+  <si>
+    <t>Vacaciones</t>
+  </si>
+  <si>
+    <t>Luis Alberto Restrepo</t>
+  </si>
+  <si>
+    <t>David Correa</t>
   </si>
 </sst>
 </file>
@@ -298,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -315,6 +327,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +523,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:F21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -1151,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
@@ -1441,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,13 +1488,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="I2">
@@ -1490,7 +1506,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B3">
@@ -1506,21 +1522,30 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I26" si="0">SUM(B3:H3)</f>
+        <f t="shared" ref="I3:I29" si="0">SUM(B3:H3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
       <c r="I4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E5">
@@ -1532,304 +1557,328 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="I13">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="I15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B26">
@@ -1844,9 +1893,48 @@
       <c r="E26">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1855,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:E31" si="1">SUM(C2:C30)</f>
+        <f t="shared" ref="C31:F31" si="1">SUM(C2:C30)</f>
         <v>8</v>
       </c>
       <c r="D31">
@@ -1864,15 +1952,43 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="I31">
         <f t="shared" ref="I31" si="2">SUM(B31:H31)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1884,7 +2000,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I26">
+  <conditionalFormatting sqref="E22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
